--- a/data/publications/orcid/export_to_manual/Uniwersytet_Jana_Kochanowskiego_w_Kielcach_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Uniwersytet_Jana_Kochanowskiego_w_Kielcach_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,812 +436,880 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Ryszarda Ewa Bernacka</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5919-3076</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Jakość komunikacji między rodzicami i dziećmi w różnym stopniu zaangażowanymi w agresję elektroniczną</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>FIDES ET RATIO</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Ryszarda_Ewa_Bernacka_2</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Ryszarda Ewa Bernacka</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5919-3076</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Kontekst komunikacyjny postaw rodzicielskich w percepcji  nonkonformistów  i konformistów.</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>FIDES ET RATIO</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ryszarda_Ewa_Bernacka_3</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>42</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Beata Łubianka</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3255-7260</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Aktywizacja zawodowa i społeczna osób niepełnosprawnych na współczesnym rynku pracy – zakłady aktywności zawodowej</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Przegląd Prawa Administracyjnego</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Beata_Łubianka_7</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Beata Łubianka</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3255-7260</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Integracja na Piątkę? O osobowości uczniów klas integracyjnych i nieintegracyjnych</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Języki Obce w Szkole</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Beata_Łubianka_10</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Ewelina Okoniewska</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2695-5457</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t xml:space="preserve">Wspomaganie rozwoju człowieka w procesie rekrutacji a sytuacja rodzinna poszukującego pracy. </t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2019-12-14</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Annales Universitatis Pedagicaoe Cracoviense</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ewelina_Okoniewska_2</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>61</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Ewelina Okoniewska</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2695-5457</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Personality factors affecting the decision to participate in recruitment for a position that requires lower qualifications than a candidate possesses</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2019-12-09</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ewelina_Okoniewska_3</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>62</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Ewelina Okoniewska</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2695-5457</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Satysfakcja z wykonywanej pracy w kontekście czynników osobowościowych pracowników banku</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2019-11-27</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Szkoła-Zawód-Praca</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Ewelina_Okoniewska_4</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>64</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Ewelina Okoniewska</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2695-5457</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Psychologiczna decyzja podejmowania pracy poniżej swoich kwalifikacji w kontekscie wykorzystania zasobów ludzkich</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2019-02-06</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Humanizacja Pracy</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Ewelina_Okoniewska_6</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>65</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Katarzyna Anna Potaczała-Perz</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5061-1975</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t xml:space="preserve">Belief in life as a zero-sum game in terms of stress and the social world perception </t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Studia Pedagogiczne. Problemy społeczne, edukacyjne i artystyczne</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Katarzyna_Anna_Potaczała-Perz_1</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>66</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Katarzyna Anna Potaczała-Perz</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5061-1975</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Style przywiązania kształtowane w rodzinie i ich wpływ na rozwój emocjonalny dziecka</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2018-09-23</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>ACTA SCIENTIFICA ACADEMIAE OSTROVIENSIS. SECTIO A, NAUKI HUMANISTYCZNE, SPOŁECZNE I TECHNICZNE NR 11(1)</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Katarzyna_Anna_Potaczała-Perz_2</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>68</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Tatiana Senko</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1240-2571</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Współczesny model  przygotowania specjalistów wyzszych edukacyjnych  zakładów</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2019-09-27</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Психология человека в образовании. Т. 1, № 3</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Tatiana_Senko_1</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>69</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Tatiana Senko</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1240-2571</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>aspekt społeczno-psychologiczny KONCEPCJE  FENOMEN pokoleń.</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2019-03-29</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Psychologiczne Zeszyty Naukowe, nr 1,</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Tatiana_Senko_2</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>70</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Tatiana Senko</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1240-2571</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Konflikty międzypokoleniowe, przyczyny i klasifikacja. Межпоколенные конфликты, их причины и классификация</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2018-12-20</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Annales Universitatis Paedagogicae Cracoviensis</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Tatiana_Senko_3</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>71</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Tatiana Senko</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1240-2571</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Zadowolenie z małżeństwa jako podstawa komfortu w rodzinie.</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2018-06-28</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Psychologiczne Zeszyty Naukowe, nr 2</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Tatiana_Senko_4</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>72</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Tatiana Senko</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1240-2571</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t xml:space="preserve">Charakterystyka zachowań osobowościowych pomiędzy ojcem a dziećmi w rodzinie </t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2018-06-16</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Psychologiczne Zeszyty Naukowe, nr 1</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Tatiana_Senko_5</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>73</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Tatiana Senko</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1240-2571</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Charakterystyka zachowań osobowościowych pomiędzy ojcem a dziećmi w rodzinie.</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2018-06-16</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Psychologiczne Zeszyty Naukowe, nr 1,</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Tatiana_Senko_6</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>74</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Tatiana Senko</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1240-2571</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Психологическая атмосфера семьи и ее влияние на развитие личности детей и родителей. Psychologiczna atmosfera rodziny i jej wplyw na rozwój osobowości dzieci i rodziców</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2017-12-19</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Annales Universitatis Paedagogicae Cracoviensis</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Tatiana_Senko_7</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>75</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Tatiana Senko</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1240-2571</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Психологический анализ половых различий негативных поведенческих проявлений у подростков (Analiza psychologiczna różnic płuciowych zachowań niegatywnych u nastolatków).</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2017-06-19</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Nauczyciel i Szkoła, nr 2 (62)</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Tatiana_Senko_8</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>82</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Justyna Świerczyńska</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9890-0677</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Nasilenie zaburzeń u dzieci z zespołem Aspergera a style radzenia sobie ze stresem u ich matek</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2019-09-30</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Psychiatria i Psychologia Kliniczna</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Justyna_Świerczyńska_5</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>96</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Bogumiła Witkowska-Łuć</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5980-1468</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Rola zajęć terapeutycznych w powrocie do zdrowia osób leczonych z powodu zaburzeń z kręgu schizofrenii</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2019-12-30</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Psychoterapia</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Bogumiła_Witkowska-Łuć_1</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>97</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Bogumiła Witkowska-Łuć</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5980-1468</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Schizofrenia i poczucie koherencji</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2018-04-30</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Psychiatria Polska</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Bogumiła_Witkowska-Łuć_2</t>
         </is>
